--- a/ExcelToolsTests/bin/Debug/net7.0/TestFiles/Rotater/rotate_new.xlsx
+++ b/ExcelToolsTests/bin/Debug/net7.0/TestFiles/Rotater/rotate_new.xlsx
@@ -14,7 +14,6 @@
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Лист 1" sheetId="1" r:id="rId1"/>
-    <x:sheet name="output" sheetId="5" r:id="rId5"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="191029"/>
@@ -48,7 +47,10 @@
     <x:t>United States</x:t>
   </x:si>
   <x:si>
-    <x:t>Mara</x:t>
+    <x:t>Nereida</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gaston</x:t>
   </x:si>
   <x:si>
     <x:t>Hashimoto</x:t>
@@ -57,34 +59,16 @@
     <x:t>Great Britain</x:t>
   </x:si>
   <x:si>
-    <x:t>Philip</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gent</x:t>
+    <x:t>Magwood</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brumm</x:t>
   </x:si>
   <x:si>
     <x:t>Male</x:t>
   </x:si>
   <x:si>
     <x:t>France</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kathleen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hanner</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nereida</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Magwood</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gaston</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brumm</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -508,15 +492,21 @@
       <x:c r="G3" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="H3" s="1"/>
-      <x:c r="I3" s="1"/>
-      <x:c r="J3" s="1"/>
+      <x:c r="H3" s="0">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="I3" s="0">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="J3" s="0">
+        <x:v>7</x:v>
+      </x:c>
       <x:c r="K3" s="1"/>
       <x:c r="L3" s="1"/>
     </x:row>
     <x:row r="4" spans="1:1025" x14ac:dyDescent="0.25">
-      <x:c r="C4" s="0">
-        <x:v>1</x:v>
+      <x:c r="C4" s="1" t="s">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
         <x:v>4</x:v>
@@ -530,69 +520,103 @@
       <x:c r="G4" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="I4" s="2"/>
+      <x:c r="H4" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="J4" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
     </x:row>
     <x:row r="5" spans="1:1025" x14ac:dyDescent="0.25">
-      <x:c r="C5" s="0">
-        <x:v>2</x:v>
+      <x:c r="C5" s="1" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="J5" s="0" t="s">
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1025" x14ac:dyDescent="0.25">
-      <x:c r="C6" s="0">
+      <x:c r="C6" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J6" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:1025" x14ac:dyDescent="0.25">
+      <x:c r="C7" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="D6" s="0" t="s">
+      <x:c r="D7" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G6" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:1025" x14ac:dyDescent="0.25">
-      <x:c r="C7" s="0">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
+      <x:c r="F7" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
       <x:c r="G7" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="I7" s="2"/>
+      <x:c r="H7" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="J7" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
     </x:row>
     <x:row r="8" spans="1:1025" x14ac:dyDescent="0.25">
       <x:c r="C8" s="0">
         <x:v>5</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
         <x:v>6</x:v>
@@ -606,13 +630,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
         <x:v>7</x:v>
@@ -623,13 +647,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
         <x:v>7</x:v>
@@ -769,154 +793,4 @@
   </x:headerFooter>
   <x:tableParts count="0"/>
 </x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:J7"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="3" spans="1:10">
-      <x:c r="C3" s="1">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D3" s="0">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E3" s="0">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="F3" s="0">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="G3" s="0">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="H3" s="0">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="I3" s="0">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="J3" s="0">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:10">
-      <x:c r="C4" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H4" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="I4" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="J4" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:10">
-      <x:c r="C5" s="1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="H5" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="I5" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="J5" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:10">
-      <x:c r="C6" s="1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G6" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H6" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="I6" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="J6" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:10">
-      <x:c r="C7" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H7" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="I7" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="J7" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
 </file>